--- a/22/resultados_estadisticas.xlsx
+++ b/22/resultados_estadisticas.xlsx
@@ -468,23 +468,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Air Conditioner-AC fotovoltaica 1 (kWatts)</t>
+          <t>UTEM CIER DAVID-Air Conditioner-AC Aula Magna  (kWatts)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0004</v>
+        <v>0.0002</v>
       </c>
       <c r="C2" t="n">
-        <v>2.7173</v>
+        <v>3.5871</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4848528634361233</v>
+        <v>0.5988740025332489</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9696329952757623</v>
+        <v>1.169398889205854</v>
       </c>
       <c r="F2" t="n">
-        <v>2.41076</v>
+        <v>2.8007</v>
       </c>
     </row>
   </sheetData>

--- a/22/resultados_estadisticas.xlsx
+++ b/22/resultados_estadisticas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,23 +468,419 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>UTEM CIER DAVID-Mains_A (kWatts)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2012</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2075</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2048756133691325</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.001455189277035736</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2065</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Mains_B (kWatts)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0221</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02255613369132488</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0001892040699119922</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0227</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Mains_C (kWatts)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0257</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02516222571984076</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0002253674578048177</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0254</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Air Conditioner-AC fotovoltaica 1 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01666612350708268</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0002183623621754591</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0169</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Air Conditioner-AC fotovoltaica 2 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.006700536987315989</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0007290852538782896</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0075</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>UTEM CIER DAVID-Air Conditioner-AC Aula Magna  (kWatts)</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.5871</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5988740025332489</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.169398889205854</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.8007</v>
+      <c r="B7" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0129</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01178550134246829</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0004513237543193492</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Air Conditioner-AC Aula Magna (kWatts)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0133</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01425717063234886</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0002447763943777386</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0145</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L1 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0565</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05486888251087862</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0008512532579911323</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0557</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L2 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0261</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0271</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.02666780853624664</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0002455599663422122</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0269</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L3 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.008250032404406998</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0001439848747889515</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.008399999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L1 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1688</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1706311822979354</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001061855916503618</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1719</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L2 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0248750208314045</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0002250617132522875</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0251</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L3 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.007165586519766688</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0002948338487525954</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0074</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Solar/Generation-Inversor (kWatts)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.0371</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.0354</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.03650169428756597</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0003623135182474182</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.0361</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Room/Multi-use Circuit-Contactos David (kWatts)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Lights-Alumbrado (kWatts)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Lights-Alumbrado Fotovoltaico (kWatts)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Other-Circuit_15 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Other-Circuit_16 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/22/resultados_estadisticas.xlsx
+++ b/22/resultados_estadisticas.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2012</v>
+        <v>-1.6546</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2075</v>
+        <v>5.503</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2048756133691325</v>
+        <v>0.9245617140568684</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001455189277035736</v>
+        <v>1.521521140817396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2065</v>
+        <v>3.290219999999999</v>
       </c>
     </row>
     <row r="3">
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0221</v>
+        <v>-1.673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.023</v>
+        <v>4.0703</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02255613369132488</v>
+        <v>0.5052711253504205</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001892040699119922</v>
+        <v>1.028353273355534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0227</v>
+        <v>1.7139</v>
       </c>
     </row>
     <row r="4">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0245</v>
+        <v>0.0005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0257</v>
+        <v>4.7775</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02516222571984076</v>
+        <v>0.6698838606327593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002253674578048177</v>
+        <v>1.141494664219659</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0254</v>
+        <v>2.169579999999999</v>
       </c>
     </row>
     <row r="5">
@@ -538,19 +538,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0162</v>
+        <v>0.0004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0172</v>
+        <v>2.7173</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01666612350708268</v>
+        <v>0.4848528634361233</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002183623621754591</v>
+        <v>0.9696329952757623</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0169</v>
+        <v>2.41076</v>
       </c>
     </row>
     <row r="6">
@@ -560,19 +560,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0048</v>
+        <v>0.0002</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008800000000000001</v>
+        <v>2.8877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006700536987315989</v>
+        <v>0.5203823388065679</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0007290852538782896</v>
+        <v>1.040254441174518</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0075</v>
+        <v>2.55394</v>
       </c>
     </row>
     <row r="7">
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0103</v>
+        <v>0.0003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0129</v>
+        <v>3.2299</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01178550134246829</v>
+        <v>0.4921159391269523</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004513237543193492</v>
+        <v>1.03946362372538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0123</v>
+        <v>2.4636</v>
       </c>
     </row>
     <row r="8">
@@ -604,19 +604,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0133</v>
+        <v>0.0003</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0148</v>
+        <v>3.8203</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01425717063234886</v>
+        <v>0.4740906688025631</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002447763943777386</v>
+        <v>1.133378252673559</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0145</v>
+        <v>0.3188199999999989</v>
       </c>
     </row>
     <row r="9">
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0525</v>
+        <v>0.0012</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0565</v>
+        <v>0.4947</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05486888251087862</v>
+        <v>0.04254521425710853</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0008512532579911323</v>
+        <v>0.01835606559961331</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0557</v>
+        <v>0.0588</v>
       </c>
     </row>
     <row r="10">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0261</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0271</v>
+        <v>1.1809</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02666780853624664</v>
+        <v>0.02712999599519424</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002455599663422122</v>
+        <v>0.02904573681476363</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0269</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0002</v>
       </c>
       <c r="C11" t="n">
+        <v>1.1874</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0095784140969163</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.03046207005215096</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.008699999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.008250032404406998</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.0001439848747889515</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1688</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1725</v>
+        <v>1.7071</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1706311822979354</v>
+        <v>0.3081368842611133</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001061855916503618</v>
+        <v>0.3417548440934486</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1719</v>
+        <v>0.82056</v>
       </c>
     </row>
     <row r="13">
@@ -714,19 +714,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0244</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0252</v>
+        <v>1.689</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0248750208314045</v>
+        <v>0.1627146976371646</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002250617132522875</v>
+        <v>0.2929295251152739</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0251</v>
+        <v>0.51258</v>
       </c>
     </row>
     <row r="14">
@@ -736,19 +736,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0061</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.952</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007165586519766688</v>
+        <v>0.0322299158990789</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0002948338487525954</v>
+        <v>0.1311469951745936</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0074</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="15">
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0371</v>
+        <v>-3.3728</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0354</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03650169428756597</v>
+        <v>-0.1557849419303164</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0003623135182474182</v>
+        <v>0.5216031903884359</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.7038</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.02171978374048859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.05162978569390284</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.02825999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -805,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.04371750100120144</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.07341757453350573</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.17606</v>
       </c>
     </row>
     <row r="18">
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.8149</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.1502166599919904</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.3010656529124679</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.7551</v>
       </c>
     </row>
     <row r="19">

--- a/22/resultados_estadisticas.xlsx
+++ b/22/resultados_estadisticas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,314 +575,6 @@
         <v>2.55394</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Air Conditioner-AC Aula Magna  (kWatts)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.2299</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.4921159391269523</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.03946362372538</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.4636</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Air Conditioner-AC Aula Magna (kWatts)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.8203</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4740906688025631</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.133378252673559</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3188199999999989</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L1 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4947</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.04254521425710853</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.01835606559961331</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.0588</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L2 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.1809</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.02712999599519424</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.02904573681476363</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L3 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.1874</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0095784140969163</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.03046207005215096</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.008699999999999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L1 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.7071</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.3081368842611133</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.3417548440934486</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.82056</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L2 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.689</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1627146976371646</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.2929295251152739</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.51258</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L3 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0322299158990789</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1311469951745936</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Solar/Generation-Inversor (kWatts)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-3.3728</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.1557849419303164</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5216031903884359</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Room/Multi-use Circuit-Contactos David (kWatts)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7038</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.02171978374048859</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.05162978569390284</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.02825999999999999</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Lights-Alumbrado (kWatts)</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.187</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.04371750100120144</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.07341757453350573</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.17606</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Lights-Alumbrado Fotovoltaico (kWatts)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8149</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.1502166599919904</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.3010656529124679</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.7551</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Other-Circuit_15 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Other-Circuit_16 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/22/resultados_estadisticas.xlsx
+++ b/22/resultados_estadisticas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,111 +468,419 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Mains_A (kWatts)</t>
+          <t>MÓDULO 2-Mains_A (kWatts)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.6546</v>
+        <v>0.6256</v>
       </c>
       <c r="C2" t="n">
-        <v>5.503</v>
+        <v>11.61</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9245617140568684</v>
+        <v>5.951439922722173</v>
       </c>
       <c r="E2" t="n">
-        <v>1.521521140817396</v>
+        <v>1.598953793276366</v>
       </c>
       <c r="F2" t="n">
-        <v>3.290219999999999</v>
+        <v>7.9496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Mains_B (kWatts)</t>
+          <t>MÓDULO 2-Mains_B (kWatts)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.673</v>
+        <v>0.3224</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0703</v>
+        <v>7.9319</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5052711253504205</v>
+        <v>4.909248934313847</v>
       </c>
       <c r="E3" t="n">
-        <v>1.028353273355534</v>
+        <v>0.6734555335032745</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7139</v>
+        <v>5.46187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Mains_C (kWatts)</t>
+          <t>MÓDULO 2-Mains_C (kWatts)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005</v>
+        <v>0.4714</v>
       </c>
       <c r="C4" t="n">
-        <v>4.7775</v>
+        <v>7.9498</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6698838606327593</v>
+        <v>5.129990701732519</v>
       </c>
       <c r="E4" t="n">
-        <v>1.141494664219659</v>
+        <v>0.4628682795689598</v>
       </c>
       <c r="F4" t="n">
-        <v>2.169579999999999</v>
+        <v>5.2743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Air Conditioner-AC fotovoltaica 1 (kWatts)</t>
+          <t>MÓDULO 2-Air Conditioner-sala de juntas- dirección baja (kWatts)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0004</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.7173</v>
+        <v>4.108</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4848528634361233</v>
+        <v>0.4713417050978437</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9696329952757623</v>
+        <v>0.999179654018837</v>
       </c>
       <c r="F5" t="n">
-        <v>2.41076</v>
+        <v>1.76178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Air Conditioner-AC fotovoltaica 2 (kWatts)</t>
+          <t>MÓDULO 2-Air Conditioner-recepcion (kWatts)</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.5452</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1037500934812414</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3495298482776993</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-rack (kWatts)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1996531098092983</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3202287969999081</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.78317</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula3 baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.2554</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1544148822136358</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6559822588998714</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula 10 baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.8619</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1085955502929079</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.500971927120254</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-bodega (kWatts)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.6203</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1419099214757572</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3721019012276099</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4270099999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Other-capacitores (kWatts)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.2628</v>
+      </c>
+      <c r="C11" t="n">
+        <v>59.2563</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.44932016701982</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8690918286453339</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.7466</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula 9 baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.5982</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.835576505047987</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.618811229792319</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.83227</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aire cubiculos (kWatts)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.0002</v>
       </c>
-      <c r="C6" t="n">
-        <v>2.8877</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5203823388065679</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.040254441174518</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.55394</v>
+      <c r="D13" t="n">
+        <v>2.492833104823632e-07</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.056523218100151e-06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula8 baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.3168</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.117590439985043</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6330789285165316</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula 9 alta (kWatts)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.8971</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.322762246042628</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.120250270425622</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.75009</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-sala conferencias baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.0464</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.05207461049482738</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4024736644265267</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula2 baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.0676</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02457256637168142</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3095280913115447</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula 1baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>18.8362</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.002376966222111429</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2102796203429498</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Other-Circuit_15 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Other-Circuit_16 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
